--- a/console/Networking/networkExcel1029/componentsMixinsXlsx/elasticNetworkMixinsXlsx/layerElasticNetworkList.xlsx
+++ b/console/Networking/networkExcel1029/componentsMixinsXlsx/elasticNetworkMixinsXlsx/layerElasticNetworkList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\20. 弹性网卡控制台国际化翻译校对\3. 客户确认版-更新至github\弹性网卡确认-GTCOM-haopeng1108-需更新至github\componentsMixinsXlsx_elasticNetworkMixinsXlsx_haopeng1106-R\elasticNetworkMixinsXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,18 +41,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>网卡名称</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>layerElasticNetworkList_i18nKey_2</t>
     </r>
   </si>
@@ -65,18 +53,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>网卡属性</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>layerElasticNetworkList_i18nKey_3</t>
     </r>
   </si>
@@ -89,20 +65,238 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>layerElasticNetworkList_i18nKey_4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layerElasticNetworkList_i18nKey_19</t>
+    </r>
+  </si>
+  <si>
+    <t>ENI Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENI Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This security group has been already associated to this ENI.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网卡属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无弹性网卡数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网卡名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>'内网IP'</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_4</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Private IP'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -115,18 +309,20 @@
       </rPr>
       <t>'主IP'</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_5</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Primary IP'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -139,42 +335,24 @@
       </rPr>
       <t>当前弹性网卡内网IP已绑定公网IP</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>无弹性网卡数据</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_7</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This private IP has been already associated with an EIP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No Elastic Network Interface Data</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -187,18 +365,7 @@
       </rPr>
       <t>当前安全组已绑定该弹性网卡</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_8</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -211,18 +378,11 @@
       </rPr>
       <t>当前弹性网卡绑定安全组数量已达上限</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_9</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of security groups on this ENI has reached the upper limit.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -235,18 +395,20 @@
       </rPr>
       <t>加载中…</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_10</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uploading…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -259,18 +421,20 @@
       </rPr>
       <t>公网绑定弹性网卡</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_11</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Public Network Bind Elastic Network Interface</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -283,18 +447,20 @@
       </rPr>
       <t>同地域</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_12</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Same Region</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -307,18 +473,20 @@
       </rPr>
       <t>特点</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_13</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,18 +499,20 @@
       </rPr>
       <t>checkbox选中，滚动加载</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_14</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check the Checkbox and Scroll for Loading</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -355,18 +525,20 @@
       </rPr>
       <t>主|輔助 網卡  string</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_15</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primary | Secondary network interface  string</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,18 +551,20 @@
       </rPr>
       <t>主iP |輔助ip（尚未提供）|</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_16</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primary IP | Secondary IP (unavailable yet)|</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,18 +577,20 @@
       </rPr>
       <t>主辅</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_17</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Primary and Secondary</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -427,18 +603,20 @@
       </rPr>
       <t>全显示 string</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_18</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Full display string</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -451,18 +629,11 @@
       </rPr>
       <t>子网id</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>layerElasticNetworkList_i18nKey_19</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subnet ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -475,233 +646,18 @@
       </rPr>
       <t>安全組id</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Network Card Interface Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Network Interface Attribute</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Private IP'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Primary IP'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Current Private IP of Elastic Network Interface has been associated with EIP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No Elastic Network Interface Data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Current Security Group has been associated with Elastic Network Interface</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Uploading…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Public Network Bind Elastic Network Interface</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Same Region</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Feature</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Check the Checkbox and Scroll for Loading</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primary | Secondary network interface  string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primary IP | Secondary IP (unavailable yet)|</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Primary and Secondary</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Full display string</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Subnet id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Security group id</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of elastic network interface associated with security group has reached the cap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security Group ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,6 +667,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -737,9 +701,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1079,233 +1046,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B19" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:B5 A1 A2 A7:B19 A6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>